--- a/premise/data/additional_inventories/lci-biochar-spruce.xlsx
+++ b/premise/data/additional_inventories/lci-biochar-spruce.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/beb59fcfee81a4a3/DACCS BAFU/biochar inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_9AA15764BB8536C11E7548359D6C26AB78780750" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B482E81-8E88-0547-9BDE-0B96204CA93E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4540FDD0-8F2B-CF47-A119-3A9D1E4E99DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="-680" windowWidth="32080" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biochair_1_spruce_cutoff" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
   <si>
     <t>Database</t>
   </si>
@@ -181,9 +181,6 @@
     <t>biochar, from spruce wood pyrolysis</t>
   </si>
   <si>
-    <t>biochar, applied to mineral soil</t>
-  </si>
-  <si>
     <t>carbon dioxide, captured and stored by biochar application on mineral soil</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>air</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured and stored</t>
   </si>
 </sst>
 </file>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -986,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -1018,7 +1018,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1056,8 +1056,9 @@
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="H39" t="s">
-        <v>42</v>
+      <c r="H39" t="str">
+        <f>B34</f>
+        <v>carbon dioxide, captured and stored</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -1132,20 +1133,20 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <f>0.386</f>
         <v>0.38600000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-biochar-spruce.xlsx
+++ b/premise/data/additional_inventories/lci-biochar-spruce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4540FDD0-8F2B-CF47-A119-3A9D1E4E99DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03D7AD2-1AF7-2540-B304-B28682C91B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36880" yWindow="-100" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biochair_1_spruce_cutoff" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
   <si>
     <t>Database</t>
   </si>
@@ -181,9 +181,6 @@
     <t>biochar, from spruce wood pyrolysis</t>
   </si>
   <si>
-    <t>carbon dioxide, captured and stored by biochar application on mineral soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">This dataset supplies the application of biochar on mineral soil and the subsequent removal of 1 kilogram of atmospheric carbon dioxide following the application of biochar to soil. The inventory was calculated using the following assumptions and data: application rate: 30t biochar/ha; transportation of biochar from plant to application spot is assumed to be 100km, while the tractor distance for the spreading is assumed to be 5km. The carbon stability factor = 0.7272  - the carbon stability factor, derived from Woolf et al. (2010) https://www.nature.com/articles/ncomms1053, measures the fraction of biochar carbon that remains stable in the soil after 100 years. This factor depends on the soil temperature and pyrolysis process temperature. The global mean soil temperature used in the study is 14.9°C. The analysis focuses on mineral soils since applying biochar to organic soils might lead to positive priming (increased mineralization of soil organic carbon), which could offset the carbon storage benefits. Potential changes in soil emissions, such as reduced N₂O emissions after biochar application, are not included in the analysis. Assumes 2.4 kg CO2 removed/kg biochar. Source: Hoeskuldsdottir, Gudrun. 2022. Life Cycle Assessment of Biochar to Soil Systems: A Parametric Analysis. Master’s thesis, Swiss Federal Institute of Technology Zürich and Paul Scherrer Institute.
 </t>
   </si>
@@ -200,7 +197,10 @@
     <t>air</t>
   </si>
   <si>
-    <t>carbon dioxide, captured and stored</t>
+    <t>carbon dioxide, captured and stored, by biochar application on mineral soil</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured</t>
   </si>
 </sst>
 </file>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -1018,7 +1018,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -1038,8 +1038,9 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>42</v>
+      <c r="A39" t="str">
+        <f>B31</f>
+        <v>carbon dioxide, captured and stored, by biochar application on mineral soil</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1058,7 +1059,7 @@
       </c>
       <c r="H39" t="str">
         <f>B34</f>
-        <v>carbon dioxide, captured and stored</v>
+        <v>carbon dioxide, captured</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -1133,20 +1134,20 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <f>0.386</f>
         <v>0.38600000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-biochar-spruce.xlsx
+++ b/premise/data/additional_inventories/lci-biochar-spruce.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03D7AD2-1AF7-2540-B304-B28682C91B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05919F94-9475-5946-B119-60D198622099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36880" yWindow="-100" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15200" yWindow="920" windowWidth="14900" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="biochair_1_spruce_cutoff" sheetId="1" r:id="rId1"/>
+    <sheet name="biochar_1_spruce_cutoff" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">biochair_1_spruce_cutoff!$A$1:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">biochar_1_spruce_cutoff!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +35,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DB5A4450-C5AE-5249-9B82-CBA785B0C732}</author>
+    <author>tc={9F39A1EA-F6C3-9B4E-B0AD-AEF79A7C7DC5}</author>
+    <author>tc={CD1B4E4A-A676-2045-8B65-74A78846E425}</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{DB5A4450-C5AE-5249-9B82-CBA785B0C732}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Maria, I now link to the wood chips psruce dataset, which comes “wet”. Can you figure out the heat required to dry 1 kg of wood chips?
+Reply:
+    And can you write your reasonning in the comment column? Thx.</t>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{9F39A1EA-F6C3-9B4E-B0AD-AEF79A7C7DC5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Maria, is this number considering allocation between biochar, gas and other co-products?</t>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="2" shapeId="0" xr:uid="{CD1B4E4A-A676-2045-8B65-74A78846E425}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Same comment</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
   <si>
     <t>Database</t>
   </si>
@@ -147,11 +185,6 @@
   </si>
   <si>
     <t>DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This dataset supplies 1 kilogram of preprocessed spruce wood before entering the pyrolysis process. The wood goes through drying and chipping. The energy requirements for drying the feedstock depend on its moisture content. The moisture level is assumed to be 40% (based on data from Tisserant, A., Morales, M., Cavalett, O., O'Toole, A., Weldon, S., Rasse, D. P., &amp; Cherubini, F. (2022). Life-cycle assessment to unravel co-benefits and trade-offs of large-scale biochar deployment in Norwegian agriculture. Resources, Conservation and Recycling, 179, 106030. https://doi.org/10.1016/j.resconrec.2021.106030) with a conversion factor to dry ton of 0.6. The feedstock is assumed to be dried to zero moisture content to be on the safe side in accounting for the energy requirements of evaporating water at all stages. Rotary drier requirements: 0.1 GJ electricity/tonnes of water and 2.7 GJ thermal energy/tonnes of water. Electricity and heat requirements are taken from Manouchehrinejad, M., &amp; Mani, S. (2019). Process simulation of an integrated biomass torrefaction and pelletization (iBTP) plant to produce solid biofuels. Energy Conversion and Management: X, 1, 100008. https://doi.org/10.1016/j.ecmx.2019.100008. Electric chipping requirements: 0.0005 GJ/ MJfsdry. The requirements for electric chipping are taken from Kuptz, D., &amp; Hartmann, H. (2014). Throughput Rate and Energy Consumption During Wood Chip Production in Relation to Raw Material, Chipper Type and Machine Setting. https://doi.org/10.5071/22ndEUBCE2014-2CO.1.5. The distance from the collection point to the plant is assumed to be 100km.
-Source: Hoeskuldsdottir, Gudrun. 2022. Life Cycle Assessment of Biochar to Soil Systems: A Parametric Analysis. Master’s thesis, Swiss Federal Institute of Technology Zürich and Paul Scherrer Institute.
-</t>
   </si>
   <si>
     <t>spruce wood, chipping and drying</t>
@@ -202,6 +235,32 @@
   <si>
     <t>carbon dioxide, captured</t>
   </si>
+  <si>
+    <t>spruce wood chips, drying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dataset supplies 1 kilogram of preprocessed spruce wood chips before entering the pyrolysis process. The wood goes through drying and chipping. The energy requirements for drying the feedstock depend on its moisture content. The moisture level is assumed to be 40% (based on data from Tisserant, A., Morales, M., Cavalett, O., O'Toole, A., Weldon, S., Rasse, D. P., &amp; Cherubini, F. (2022). Life-cycle assessment to unravel co-benefits and trade-offs of large-scale biochar deployment in Norwegian agriculture. Resources, Conservation and Recycling, 179, 106030. https://doi.org/10.1016/j.resconrec.2021.106030) with a conversion factor to dry ton of 0.6. The feedstock is assumed to be dried to zero moisture content to be on the safe side in accounting for the energy requirements of evaporating water at all stages. Rotary drier requirements: 0.1 GJ electricity/tonnes of water and 2.7 GJ thermal energy/tonnes of water. Electricity and heat requirements are taken from Manouchehrinejad, M., &amp; Mani, S. (2019). Process simulation of an integrated biomass torrefaction and pelletization (iBTP) plant to produce solid biofuels. Energy Conversion and Management: X, 1, 100008. https://doi.org/10.1016/j.ecmx.2019.100008. Electric chipping requirements: 0.0005 GJ/ MJfsdry. The requirements for electric chipping are taken from Kuptz, D., &amp; Hartmann, H. (2014). Throughput Rate and Energy Consumption During Wood Chip Production in Relation to Raw Material, Chipper Type and Machine Setting. https://doi.org/10.5071/22ndEUBCE2014-2CO.1.5. The distance from the collection point to the plant is assumed to be 100km.
+Source: Hoeskuldsdottir, Gudrun. 2022. Life Cycle Assessment of Biochar to Soil Systems: A Parametric Analysis. Master’s thesis, Swiss Federal Institute of Technology Zürich and Paul Scherrer Institute.
+</t>
+  </si>
+  <si>
+    <t>spruce wood chips, dried</t>
+  </si>
+  <si>
+    <t>1316.65 GJ of thermal energy required to produce 1673.33 t biochar.</t>
+  </si>
+  <si>
+    <t>273.59 GJ electricity required to produce 1673.33 t biochar.</t>
+  </si>
+  <si>
+    <t>72.2% of carbon content fixed. Carbon content: 0.799 kgC/kg biochar.</t>
+  </si>
+  <si>
+    <t>Moisture content 40%, wet-basis.</t>
+  </si>
+  <si>
+    <t>1 kg of dry mass, but received wet.</t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +284,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,11 +312,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,6 +333,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Romain Sacchi" id="{55B708A9-97CD-854E-853E-4D290F43BC24}" userId="beb59fcfee81a4a3" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,12 +626,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B13" dT="2025-04-02T11:14:06.77" personId="{55B708A9-97CD-854E-853E-4D290F43BC24}" id="{DB5A4450-C5AE-5249-9B82-CBA785B0C732}">
+    <text>Maria, I now link to the wood chips psruce dataset, which comes “wet”. Can you figure out the heat required to dry 1 kg of wood chips?</text>
+  </threadedComment>
+  <threadedComment ref="B13" dT="2025-04-02T11:14:36.13" personId="{55B708A9-97CD-854E-853E-4D290F43BC24}" id="{A9D94C5F-ED26-CD4E-99DC-5EB1357E0697}" parentId="{DB5A4450-C5AE-5249-9B82-CBA785B0C732}">
+    <text>And can you write your reasonning in the comment column? Thx.</text>
+  </threadedComment>
+  <threadedComment ref="B25" dT="2025-04-02T11:09:56.92" personId="{55B708A9-97CD-854E-853E-4D290F43BC24}" id="{9F39A1EA-F6C3-9B4E-B0AD-AEF79A7C7DC5}">
+    <text>Maria, is this number considering allocation between biochar, gas and other co-products?</text>
+  </threadedComment>
+  <threadedComment ref="B26" dT="2025-04-02T11:10:04.42" personId="{55B708A9-97CD-854E-853E-4D290F43BC24}" id="{CD1B4E4A-A676-2045-8B65-74A78846E425}">
+    <text>Same comment</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,7 +656,7 @@
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,23 +664,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -599,15 +688,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -615,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -623,12 +712,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -650,10 +739,13 @@
       <c r="G10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -671,10 +763,10 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -696,13 +788,16 @@
       <c r="G12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -719,439 +814,416 @@
       <c r="G13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>0.1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>B3</f>
+        <v>spruce wood chips, drying</v>
+      </c>
+      <c r="B24">
+        <v>1.62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="str">
+        <f>B6</f>
+        <v>spruce wood chips, dried</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <f>(1316.65 *1000)/(1673.33*1000)</f>
+        <v>0.78684419690079066</v>
+      </c>
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B15">
-        <v>1.52055473673233E-2</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B26">
+        <f>(273.59 *1000/3.6)/(1673.33*1000)</f>
+        <v>4.5416757138294434E-2</v>
+      </c>
+      <c r="C26" t="s">
         <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26">
-        <v>1.62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>0.78684616399999996</v>
+        <v>2.98806E-8</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>4.5416805999999997E-2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="E28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>2.98806E-8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>B29</f>
+        <v>carbon dioxide, captured and stored, by biochar application on mineral soil</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>11</v>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="str">
+        <f>B32</f>
+        <v>carbon dioxide, captured</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="B38" s="2">
+        <f>1/(2.93*72.2%)</f>
+        <v>0.47271042704659977</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="I38" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" t="str">
-        <f>B31</f>
-        <v>carbon dioxide, captured and stored, by biochar application on mineral soil</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="str">
-        <f>B34</f>
-        <v>carbon dioxide, captured</v>
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2">
-        <f>1/(2.93*72.2%)</f>
-        <v>0.47271042704659977</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="D40" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
         <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4.1666666666666671E-2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="2">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="B41">
         <f>0.386</f>
         <v>0.38600000000000001</v>
       </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
         <v>10</v>
       </c>
-      <c r="G43" t="s">
-        <v>44</v>
+      <c r="G41" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G43" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G41" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>